--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1744436.346591545</v>
+        <v>1779755.101917314</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>192510.0043371694</v>
+        <v>214516.840105558</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478704</v>
+        <v>8362709.488478709</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>200.160833108852</v>
+        <v>65.59445268283726</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>34.66067414728059</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>62.11690385378651</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>135.9049866160226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>224.955318164091</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>57.16776090941368</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>97.34871926419866</v>
+        <v>50.27035956252695</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.8527030859572</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>143.6889339462832</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>77.24342326703558</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
         <v>105.5335559456492</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>100.6421110425457</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.15307578127808</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>119.8845921763328</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>170.8253869856358</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>324.7751361508946</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>87.44343815779774</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>43.76331341951682</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.302520646659629</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>209.3053109272533</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>19.20465568639077</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>121.9121779086095</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>83.29896986725154</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>78.5122943577001</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>74.45321135218525</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
         <v>213.8779974765521</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>14.12372123315069</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>233.8945593220358</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>248.4314713566566</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>14.31742697697812</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2177,7 +2177,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>25.94935617649208</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2219,7 +2219,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>238.8214316961478</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>19.91941398152748</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>61.26651693247034</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>26.73110927253554</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2408,10 +2408,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>52.1829371375707</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>12.94938438095016</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>215.0193244057284</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>127.6570108926884</v>
+        <v>50.46060998221572</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
-        <v>194.0090813393878</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>13.08993799274037</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>74.15307578127806</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>309.7322243534005</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>74.86941113919741</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
         <v>217.4184586216305</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>43.76331341951682</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>108.2912514701853</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>85.73493885277921</v>
       </c>
       <c r="U31" t="n">
-        <v>152.9432719935528</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.005789270132</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
-        <v>139.9237330628771</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>167.1854693452496</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8957288909827</v>
+        <v>133.0094536351701</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>119.7809561473941</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2872966473816</v>
+        <v>47.52270846611674</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>340.4577542658359</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>211.5699602035517</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>109.2563341216243</v>
       </c>
       <c r="G36" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3401,7 +3401,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
-        <v>167.6537967113008</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>46.50979384247879</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.23959131629399</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>26.73110927253554</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>385.8158285321903</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>52.18293713757069</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>135.2771892168209</v>
       </c>
       <c r="T40" t="n">
-        <v>4.367319079164597</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>26.73110927253622</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>108.1534081265089</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
-        <v>185.1380651252356</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U42" t="n">
         <v>225.8957288909827</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>110.3485489435109</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>47.23959131629395</v>
+        <v>146.5623749521075</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>121.7607916195504</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>389.7981556891644</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242954</v>
       </c>
       <c r="T45" t="n">
         <v>197.3677099213027</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>85.49923716356982</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>47.239591316294</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C2" t="n">
-        <v>297.2027203719481</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.04605772994853</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C3" t="n">
-        <v>55.04605772994853</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D3" t="n">
-        <v>55.04605772994853</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>55.04605772994853</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>55.04605772994853</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="W3" t="n">
-        <v>55.04605772994853</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X3" t="n">
-        <v>55.04605772994853</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.04605772994853</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="4">
@@ -4467,28 +4467,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4600,16 +4600,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
         <v>315.6850394389064</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>557.3945247848451</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>382.9414955037181</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>382.9414955037181</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>901.3128081835791</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>673.0891899199682</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>437.9370816882255</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y6" t="n">
-        <v>725.6098618049132</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4758,19 +4758,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>517.4848137278872</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="C8" t="n">
-        <v>517.4848137278872</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="D8" t="n">
-        <v>517.4848137278872</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="E8" t="n">
         <v>290.2572196227447</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>517.4848137278872</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="Y8" t="n">
-        <v>517.4848137278872</v>
+        <v>533.7059962668447</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>179.2727307684539</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C9" t="n">
-        <v>179.2727307684539</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
         <v>20.03527576299844</v>
@@ -4892,10 +4892,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N9" t="n">
         <v>613.2059550252818</v>
-      </c>
-      <c r="N9" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X9" t="n">
-        <v>277.6047704292607</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y9" t="n">
-        <v>179.2727307684539</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4992,22 +4992,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>938.1442229836907</v>
+        <v>792.873703737558</v>
       </c>
       <c r="C11" t="n">
-        <v>569.181706043279</v>
+        <v>792.873703737558</v>
       </c>
       <c r="D11" t="n">
-        <v>210.9160074365284</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2385.580855834267</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2385.580855834267</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>2385.580855834267</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U11" t="n">
-        <v>2385.580855834267</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V11" t="n">
-        <v>2054.517968490697</v>
+        <v>2295.847289308686</v>
       </c>
       <c r="W11" t="n">
-        <v>1701.749313220582</v>
+        <v>1943.078634038571</v>
       </c>
       <c r="X11" t="n">
-        <v>1328.283554959502</v>
+        <v>1569.612875777492</v>
       </c>
       <c r="Y11" t="n">
-        <v>938.1442229836907</v>
+        <v>1179.47354380168</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>779.8344674874215</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C12" t="n">
-        <v>605.3814382062945</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D12" t="n">
-        <v>605.3814382062945</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E12" t="n">
-        <v>446.143983200839</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F12" t="n">
-        <v>299.609425227724</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G12" t="n">
         <v>221.5857653620315</v>
@@ -5123,49 +5123,49 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>238.3436013083818</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N12" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O12" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2280.589895521037</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T12" t="n">
-        <v>2081.228572368206</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U12" t="n">
-        <v>1853.051068437921</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V12" t="n">
-        <v>1617.898960206178</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W12" t="n">
-        <v>1363.661603477976</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X12" t="n">
-        <v>1155.810103272443</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y12" t="n">
-        <v>948.0498045074896</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256327</v>
+        <v>169.9153001854247</v>
       </c>
       <c r="C13" t="n">
         <v>48.81975253256327</v>
@@ -5226,25 +5226,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T13" t="n">
-        <v>412.9009368039367</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U13" t="n">
-        <v>123.721849281329</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V13" t="n">
-        <v>123.721849281329</v>
+        <v>169.9153001854247</v>
       </c>
       <c r="W13" t="n">
-        <v>123.721849281329</v>
+        <v>169.9153001854247</v>
       </c>
       <c r="X13" t="n">
-        <v>123.721849281329</v>
+        <v>169.9153001854247</v>
       </c>
       <c r="Y13" t="n">
-        <v>123.721849281329</v>
+        <v>169.9153001854247</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1365.955863431131</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="C14" t="n">
-        <v>1365.955863431131</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="D14" t="n">
-        <v>1007.69016482438</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="E14" t="n">
-        <v>621.901912226136</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F14" t="n">
-        <v>210.9160074365284</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G14" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5284,7 +5284,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5305,25 +5305,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>2259.7089786956</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U14" t="n">
-        <v>2087.158082750513</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V14" t="n">
-        <v>1756.095195406942</v>
+        <v>1893.317328878138</v>
       </c>
       <c r="W14" t="n">
-        <v>1756.095195406942</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="X14" t="n">
-        <v>1756.095195406942</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="Y14" t="n">
-        <v>1365.955863431131</v>
+        <v>1540.548673608024</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D15" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E15" t="n">
-        <v>239.5596775960993</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F15" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G15" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H15" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
@@ -5366,43 +5366,43 @@
         <v>728.4044351658748</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561437</v>
+        <v>1213.344937535604</v>
       </c>
       <c r="N15" t="n">
-        <v>1567.327806199055</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O15" t="n">
-        <v>1979.533427718284</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P15" t="n">
-        <v>2293.361711999592</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.14553096353259</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>51.14553096353259</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
         <v>48.81975253256327</v>
@@ -5463,25 +5463,25 @@
         <v>487.9764913965093</v>
       </c>
       <c r="S16" t="n">
-        <v>271.9381101070627</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T16" t="n">
-        <v>271.9381101070627</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="U16" t="n">
-        <v>271.9381101070627</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="V16" t="n">
-        <v>271.9381101070627</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W16" t="n">
-        <v>271.9381101070627</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X16" t="n">
-        <v>271.9381101070627</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.14553096353259</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>812.2723458450234</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="C17" t="n">
-        <v>812.2723458450234</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D17" t="n">
-        <v>454.0066472382729</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E17" t="n">
-        <v>68.21839464002869</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F17" t="n">
-        <v>48.81975253256327</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G17" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5521,13 +5521,13 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T17" t="n">
-        <v>2259.7089786956</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U17" t="n">
-        <v>2259.7089786956</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V17" t="n">
-        <v>1928.646091352029</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W17" t="n">
-        <v>1575.877436081915</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X17" t="n">
-        <v>1202.411677820835</v>
+        <v>1594.080467256759</v>
       </c>
       <c r="Y17" t="n">
-        <v>812.2723458450234</v>
+        <v>1594.080467256759</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>722.1845715439331</v>
+        <v>842.2405468607036</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628061</v>
+        <v>667.7875175795766</v>
       </c>
       <c r="D18" t="n">
-        <v>398.7971326015548</v>
+        <v>518.8531079183253</v>
       </c>
       <c r="E18" t="n">
-        <v>239.5596775960993</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F18" t="n">
-        <v>155.4193039928149</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G18" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H18" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5600,13 +5600,13 @@
         <v>174.1773125904007</v>
       </c>
       <c r="L18" t="n">
-        <v>540.2677802593125</v>
+        <v>553.3044557157939</v>
       </c>
       <c r="M18" t="n">
-        <v>1034.670495654875</v>
+        <v>1047.707171111357</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1570.902268629703</v>
       </c>
       <c r="O18" t="n">
         <v>1970.07121469245</v>
@@ -5624,22 +5624,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2143.634651741488</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>1915.457147811203</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1680.30503957946</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1426.067682851258</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1218.216182645725</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640012</v>
+        <v>1010.455883880772</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>410.333403307321</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="C19" t="n">
-        <v>410.333403307321</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="D19" t="n">
-        <v>260.2167638949852</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="E19" t="n">
-        <v>260.2167638949852</v>
+        <v>124.0250165246696</v>
       </c>
       <c r="F19" t="n">
-        <v>260.2167638949852</v>
+        <v>124.0250165246696</v>
       </c>
       <c r="G19" t="n">
-        <v>260.2167638949852</v>
+        <v>124.0250165246696</v>
       </c>
       <c r="H19" t="n">
-        <v>101.57561144789</v>
+        <v>124.0250165246696</v>
       </c>
       <c r="I19" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J19" t="n">
         <v>48.81975253256327</v>
@@ -5697,28 +5697,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S19" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="T19" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="U19" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="V19" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="W19" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="X19" t="n">
-        <v>410.333403307321</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="Y19" t="n">
-        <v>410.333403307321</v>
+        <v>271.9381101070627</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1081.851040548734</v>
+        <v>776.0479680797255</v>
       </c>
       <c r="C20" t="n">
-        <v>1081.851040548734</v>
+        <v>407.0854511393138</v>
       </c>
       <c r="D20" t="n">
-        <v>845.5939099204151</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E20" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F20" t="n">
         <v>48.81975253256327</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5782,22 +5782,22 @@
         <v>2371.897027894854</v>
       </c>
       <c r="T20" t="n">
-        <v>2152.282423226541</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U20" t="n">
-        <v>2152.282423226541</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V20" t="n">
-        <v>1821.21953588297</v>
+        <v>1787.054446563166</v>
       </c>
       <c r="W20" t="n">
-        <v>1468.450880612856</v>
+        <v>1787.054446563166</v>
       </c>
       <c r="X20" t="n">
-        <v>1468.450880612856</v>
+        <v>1413.588688302086</v>
       </c>
       <c r="Y20" t="n">
-        <v>1468.450880612856</v>
+        <v>1162.647808143847</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C21" t="n">
-        <v>707.72252409244</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D21" t="n">
-        <v>558.7881144311888</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E21" t="n">
-        <v>399.5506594257333</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F21" t="n">
-        <v>253.0161014526182</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G21" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
         <v>114.9862139017798</v>
@@ -5846,7 +5846,7 @@
         <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>2057.764783833527</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
         <v>2371.593068114834</v>
@@ -5855,28 +5855,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.337730684675</v>
+        <v>2414.776155742818</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577549</v>
+        <v>2254.378424635692</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2055.017101482861</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>217.7559354604702</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G22" t="n">
         <v>48.81975253256327</v>
@@ -5946,16 +5946,16 @@
         <v>640.6381696807582</v>
       </c>
       <c r="V22" t="n">
-        <v>399.4044002907099</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W22" t="n">
-        <v>399.4044002907099</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="X22" t="n">
-        <v>399.4044002907099</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="Y22" t="n">
-        <v>399.4044002907099</v>
+        <v>365.8330612915103</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>854.7590743764169</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C23" t="n">
-        <v>854.7590743764169</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D23" t="n">
-        <v>496.4933757696664</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E23" t="n">
-        <v>110.7051231714222</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>110.7051231714222</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>110.7051231714222</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
-        <v>110.7051231714222</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
@@ -6019,22 +6019,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2221.37302195985</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="U23" t="n">
-        <v>1967.593327971733</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="V23" t="n">
-        <v>1967.593327971733</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W23" t="n">
-        <v>1614.824672701619</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X23" t="n">
-        <v>1241.358914440539</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y23" t="n">
-        <v>1241.358914440539</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
         <v>48.81975253256327</v>
@@ -6068,25 +6068,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>238.3436013083818</v>
+        <v>174.1773125904007</v>
       </c>
       <c r="L24" t="n">
-        <v>540.2677802593125</v>
+        <v>553.3044557157939</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.670495654875</v>
+        <v>1047.707171111357</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1570.902268629703</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>1983.107890148932</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2296.936174430239</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>231.0001539525012</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C25" t="n">
-        <v>231.0001539525012</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D25" t="n">
-        <v>231.0001539525012</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E25" t="n">
-        <v>231.0001539525012</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
-        <v>231.0001539525012</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>61.89993877594728</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
         <v>48.81975253256327</v>
@@ -6177,22 +6177,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U25" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V25" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W25" t="n">
-        <v>640.6381696807582</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X25" t="n">
-        <v>412.6486187827409</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y25" t="n">
-        <v>412.6486187827409</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1161.83622067797</v>
+        <v>1246.955840192009</v>
       </c>
       <c r="C26" t="n">
-        <v>792.873703737558</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D26" t="n">
-        <v>434.6080051308075</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E26" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540043</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M26" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N26" t="n">
         <v>1672.394424063531</v>
@@ -6244,34 +6244,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P26" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q26" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S26" t="n">
-        <v>2312.041150978983</v>
+        <v>2320.926714781505</v>
       </c>
       <c r="T26" t="n">
-        <v>2312.041150978983</v>
+        <v>2320.926714781505</v>
       </c>
       <c r="U26" t="n">
-        <v>2312.041150978983</v>
+        <v>2320.926714781505</v>
       </c>
       <c r="V26" t="n">
-        <v>2312.041150978983</v>
+        <v>1989.863827437935</v>
       </c>
       <c r="W26" t="n">
-        <v>2312.041150978983</v>
+        <v>1637.09517216782</v>
       </c>
       <c r="X26" t="n">
-        <v>1938.575392717903</v>
+        <v>1637.09517216782</v>
       </c>
       <c r="Y26" t="n">
-        <v>1548.436060742092</v>
+        <v>1246.955840192009</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C27" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D27" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E27" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F27" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K27" t="n">
-        <v>174.1773125904007</v>
+        <v>335.2080329997801</v>
       </c>
       <c r="L27" t="n">
-        <v>553.3044557157939</v>
+        <v>714.3351761251733</v>
       </c>
       <c r="M27" t="n">
-        <v>1047.707171111357</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N27" t="n">
-        <v>1570.902268629703</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
-        <v>1983.107890148932</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.936174430239</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S27" t="n">
         <v>2222.939999577549</v>
@@ -6338,19 +6338,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1827.609907395033</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V27" t="n">
-        <v>1592.45779916329</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W27" t="n">
-        <v>1338.220442435089</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1130.368942229556</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>922.6086434646021</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K28" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
@@ -6414,22 +6414,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U28" t="n">
-        <v>351.4590821581505</v>
+        <v>123.721849281329</v>
       </c>
       <c r="V28" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="W28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="X28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1190.8541559318</v>
+        <v>953.6189910689682</v>
       </c>
       <c r="C29" t="n">
-        <v>1190.8541559318</v>
+        <v>953.6189910689682</v>
       </c>
       <c r="D29" t="n">
-        <v>877.9933232515971</v>
+        <v>953.6189910689682</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9933232515971</v>
+        <v>953.6189910689682</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0074184619895</v>
+        <v>542.6330862793607</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>124.4454203499344</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J29" t="n">
         <v>145.966048569732</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="T29" t="n">
-        <v>2221.373021959851</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U29" t="n">
-        <v>1967.593327971733</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="V29" t="n">
-        <v>1967.593327971733</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="W29" t="n">
-        <v>1967.593327971733</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="X29" t="n">
-        <v>1967.593327971733</v>
+        <v>1343.75832304478</v>
       </c>
       <c r="Y29" t="n">
-        <v>1577.453995995921</v>
+        <v>953.6189910689682</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E30" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F30" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G30" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H30" t="n">
-        <v>93.02511962298431</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>174.1773125904007</v>
+        <v>248.8342062749965</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593125</v>
+        <v>627.9613494003897</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1122.364064795952</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1645.559162314299</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2057.764783833527</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2371.593068114835</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S30" t="n">
         <v>2222.939999577549</v>
@@ -6575,10 +6575,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W30" t="n">
         <v>1306.011707534488</v>
@@ -6587,7 +6587,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>988.7751048338188</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C31" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D31" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K31" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L31" t="n">
         <v>206.6297039190408</v>
@@ -6648,25 +6648,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T31" t="n">
-        <v>640.6381696807582</v>
+        <v>337.9988400551709</v>
       </c>
       <c r="U31" t="n">
-        <v>486.150016151917</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="V31" t="n">
-        <v>486.150016151917</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="W31" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="X31" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1909.511190548436</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="C32" t="n">
-        <v>1540.548673608024</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="D32" t="n">
-        <v>1182.282975001274</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E32" t="n">
-        <v>796.4947224030295</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F32" t="n">
         <v>796.4947224030295</v>
@@ -6694,10 +6694,10 @@
         <v>378.3070564736033</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J32" t="n">
         <v>145.966048569732</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2299.650522524248</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T32" t="n">
-        <v>2299.650522524248</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U32" t="n">
-        <v>2299.650522524248</v>
+        <v>1983.408211766693</v>
       </c>
       <c r="V32" t="n">
-        <v>2299.650522524248</v>
+        <v>1983.408211766693</v>
       </c>
       <c r="W32" t="n">
-        <v>2299.650522524248</v>
+        <v>1983.408211766693</v>
       </c>
       <c r="X32" t="n">
-        <v>2299.650522524248</v>
+        <v>1983.408211766693</v>
       </c>
       <c r="Y32" t="n">
-        <v>1909.511190548436</v>
+        <v>1593.268879790881</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K33" t="n">
-        <v>174.1773125904007</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
         <v>1970.07121469245</v>
@@ -6803,7 +6803,7 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S33" t="n">
         <v>2222.939999577549</v>
@@ -6812,19 +6812,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>169.8106173279108</v>
+        <v>364.6458829583805</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K34" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
@@ -6891,19 +6891,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U34" t="n">
-        <v>351.4590821581505</v>
+        <v>592.6354338563979</v>
       </c>
       <c r="V34" t="n">
-        <v>351.4590821581505</v>
+        <v>592.6354338563979</v>
       </c>
       <c r="W34" t="n">
-        <v>351.4590821581505</v>
+        <v>592.6354338563979</v>
       </c>
       <c r="X34" t="n">
-        <v>351.4590821581505</v>
+        <v>364.6458829583805</v>
       </c>
       <c r="Y34" t="n">
-        <v>351.4590821581505</v>
+        <v>364.6458829583805</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1375.543251186608</v>
+        <v>1664.24845458823</v>
       </c>
       <c r="C35" t="n">
-        <v>1006.580734246196</v>
+        <v>1295.285937647818</v>
       </c>
       <c r="D35" t="n">
-        <v>648.3150356394456</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="E35" t="n">
-        <v>262.5267830412013</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="F35" t="n">
-        <v>262.5267830412013</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G35" t="n">
-        <v>262.5267830412013</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M35" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
         <v>1672.394424063531</v>
@@ -6955,34 +6955,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V35" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W35" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X35" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Y35" t="n">
-        <v>1762.143091250729</v>
+        <v>2050.848294652352</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.7751048338188</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C36" t="n">
-        <v>814.3220755526918</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D36" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E36" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F36" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225004</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N36" t="n">
         <v>1557.865593173221</v>
@@ -7040,28 +7040,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U36" t="n">
-        <v>1854.231407019364</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V36" t="n">
-        <v>1619.079298787621</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W36" t="n">
-        <v>1364.84194205942</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X36" t="n">
-        <v>1156.990441853887</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.990441853887</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.53651143791075</v>
+        <v>412.6486187827409</v>
       </c>
       <c r="C37" t="n">
-        <v>96.53651143791075</v>
+        <v>243.712435854834</v>
       </c>
       <c r="D37" t="n">
-        <v>96.53651143791075</v>
+        <v>243.712435854834</v>
       </c>
       <c r="E37" t="n">
-        <v>96.53651143791075</v>
+        <v>95.79934227244084</v>
       </c>
       <c r="F37" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
@@ -7131,16 +7131,16 @@
         <v>640.6381696807582</v>
       </c>
       <c r="V37" t="n">
-        <v>385.9536814748714</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W37" t="n">
-        <v>96.53651143791075</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X37" t="n">
-        <v>96.53651143791075</v>
+        <v>412.6486187827409</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.53651143791075</v>
+        <v>412.6486187827409</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
         <v>795.0052981540045</v>
@@ -7186,37 +7186,37 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O38" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2413.986506150855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2413.986506150855</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T38" t="n">
-        <v>2413.986506150855</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="U38" t="n">
-        <v>2413.986506150855</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="V38" t="n">
-        <v>2413.986506150855</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="W38" t="n">
-        <v>2413.986506150855</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="X38" t="n">
-        <v>2040.520747889775</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="Y38" t="n">
         <v>1650.381415913963</v>
@@ -7241,37 +7241,37 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F39" t="n">
-        <v>93.02511962298431</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G39" t="n">
-        <v>48.81975253256327</v>
+        <v>101.5297900452609</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>101.5297900452609</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P39" t="n">
-        <v>2371.593068114834</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>346.8095662305</v>
+        <v>503.9945442092219</v>
       </c>
       <c r="C40" t="n">
-        <v>346.8095662305</v>
+        <v>335.058361281315</v>
       </c>
       <c r="D40" t="n">
-        <v>346.8095662305</v>
+        <v>335.058361281315</v>
       </c>
       <c r="E40" t="n">
-        <v>346.8095662305</v>
+        <v>335.058361281315</v>
       </c>
       <c r="F40" t="n">
-        <v>346.8095662305</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G40" t="n">
-        <v>346.8095662305</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H40" t="n">
         <v>188.1684137834047</v>
@@ -7359,25 +7359,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>640.6381696807582</v>
+        <v>503.9945442092219</v>
       </c>
       <c r="T40" t="n">
-        <v>636.2267362674606</v>
+        <v>503.9945442092219</v>
       </c>
       <c r="U40" t="n">
-        <v>636.2267362674606</v>
+        <v>503.9945442092219</v>
       </c>
       <c r="V40" t="n">
-        <v>636.2267362674606</v>
+        <v>503.9945442092219</v>
       </c>
       <c r="W40" t="n">
-        <v>346.8095662305</v>
+        <v>503.9945442092219</v>
       </c>
       <c r="X40" t="n">
-        <v>346.8095662305</v>
+        <v>503.9945442092219</v>
       </c>
       <c r="Y40" t="n">
-        <v>346.8095662305</v>
+        <v>503.9945442092219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1290.782696327151</v>
+        <v>938.0140410570359</v>
       </c>
       <c r="C41" t="n">
-        <v>1290.782696327151</v>
+        <v>569.0515241166243</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.781575849841</v>
+        <v>569.0515241166243</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9933232515971</v>
+        <v>569.0515241166243</v>
       </c>
       <c r="F41" t="n">
-        <v>467.0074184619895</v>
+        <v>158.0656193270167</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256327</v>
+        <v>158.0656193270167</v>
       </c>
       <c r="H41" t="n">
         <v>48.81975253256327</v>
@@ -7417,7 +7417,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
@@ -7429,7 +7429,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
@@ -7450,13 +7450,13 @@
         <v>2440.987626628164</v>
       </c>
       <c r="W41" t="n">
-        <v>2440.987626628164</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X41" t="n">
-        <v>2067.521868367084</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="Y41" t="n">
-        <v>1677.382536391272</v>
+        <v>1324.613881121158</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C42" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D42" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E42" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
@@ -7493,10 +7493,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>285.1110033225004</v>
+        <v>174.1773125904007</v>
       </c>
       <c r="L42" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M42" t="n">
         <v>1034.670495654875</v>
@@ -7514,28 +7514,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T42" t="n">
-        <v>2035.931852986402</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U42" t="n">
-        <v>1807.754349056116</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1572.602240824373</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.602240824373</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.750740618841</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.990441853887</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="43">
@@ -7596,16 +7596,16 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U43" t="n">
-        <v>592.9214107754108</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V43" t="n">
-        <v>338.2369225695239</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W43" t="n">
         <v>48.81975253256327</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1608.291937657963</v>
+        <v>1499.643380370398</v>
       </c>
       <c r="C44" t="n">
-        <v>1239.329420717551</v>
+        <v>1130.680863429987</v>
       </c>
       <c r="D44" t="n">
-        <v>1239.329420717551</v>
+        <v>1007.69016482438</v>
       </c>
       <c r="E44" t="n">
-        <v>853.5411681193066</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F44" t="n">
-        <v>442.555263329699</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G44" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H44" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540045</v>
@@ -7660,40 +7660,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q44" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T44" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U44" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V44" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="W44" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="X44" t="n">
-        <v>1998.431269633774</v>
+        <v>1886.24322043452</v>
       </c>
       <c r="Y44" t="n">
-        <v>1608.291937657963</v>
+        <v>1886.24322043452</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E45" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F45" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G45" t="n">
         <v>48.81975253256327</v>
@@ -7727,52 +7727,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2340.851347212364</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="46">
@@ -7833,19 +7833,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T46" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="U46" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V46" t="n">
-        <v>385.9536814748714</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W46" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X46" t="n">
         <v>48.81975253256327</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>186.4824449171618</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23278,7 +23278,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>13.5469896600191</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
@@ -23317,7 +23317,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>184.0633245238517</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>59.40616540829441</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>105.1308741609317</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.6789044006592</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>47.36222892229505</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23466,16 +23466,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>80.41651006260039</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.977122319240266</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>70.2016422976032</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>61.77024252613235</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>146.3129523715527</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>42.83233239657469</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>387.6713900553207</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>247.8189227698595</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>61.77024252613234</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>118.8554155636026</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,13 +23907,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>137.955174638333</v>
+        <v>63.50196328614776</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>211.5859341558865</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>120.7884822986471</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
@@ -24022,22 +24022,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>137.806467299397</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>158.3910720113376</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>31.12404080756146</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
@@ -24186,10 +24186,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>13.31621162768016</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>266.6035843550635</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>99.20877542245516</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>190.6873493490949</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24296,10 +24296,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>144.1053565416741</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
         <v>137.955174638333</v>
@@ -24417,7 +24417,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>71.50367393086259</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.80885056054973</v>
+        <v>129.0052514710224</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
@@ -24502,13 +24502,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>61.7702425261319</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>31.8866475515949</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>135.525535025472</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24654,16 +24654,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>177.9845675425499</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>44.9508172672825</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>251.3230197624322</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>97.39144430711902</v>
       </c>
     </row>
     <row r="31">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,19 +24888,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>139.7249216952741</v>
       </c>
       <c r="U31" t="n">
-        <v>133.3440246538288</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.542128390361</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>84.05642770298664</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>105.5335559456492</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>92.88627525581254</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>47.46586495123377</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
@@ -25131,7 +25131,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>238.7645881812649</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14.22528735484707</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>114.6224706980779</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>58.24193217968184</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>98.91125418045246</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
@@ -25335,7 +25335,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
-        <v>4.988709009879436</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>41.66858347344075</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2418970482362</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>0.4221101238632627</v>
       </c>
     </row>
     <row r="39">
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>13.32185961795372</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>78.6008082597312</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0925414688887</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
         <v>286.2872966473816</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>327.9519323481467</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>218.0390227751207</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>12.22964479606705</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>141.3464342174087</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>239.0477053310876</v>
+        <v>139.7249216952741</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>232.9222500011326</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>24.20763358096758</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.4184586216305</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>105.5335559456492</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>35.81287827175935</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>139.9606233844835</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>178.4700640727432</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610070.3852793671</v>
+        <v>610070.3852793672</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610070.3852793671</v>
+        <v>610070.3852793672</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>610070.3852793671</v>
+        <v>610070.3852793672</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>610070.3852793671</v>
+        <v>610070.3852793672</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>610070.3852793671</v>
+        <v>610070.3852793672</v>
       </c>
     </row>
     <row r="13">
@@ -26319,7 +26319,7 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>338927.9918218704</v>
@@ -26328,25 +26328,25 @@
         <v>338927.9918218704</v>
       </c>
       <c r="G2" t="n">
+        <v>338927.9918218706</v>
+      </c>
+      <c r="H2" t="n">
+        <v>338927.9918218706</v>
+      </c>
+      <c r="I2" t="n">
+        <v>338927.9918218706</v>
+      </c>
+      <c r="J2" t="n">
+        <v>338927.9918218705</v>
+      </c>
+      <c r="K2" t="n">
+        <v>338927.9918218707</v>
+      </c>
+      <c r="L2" t="n">
+        <v>338927.9918218706</v>
+      </c>
+      <c r="M2" t="n">
         <v>338927.9918218704</v>
-      </c>
-      <c r="H2" t="n">
-        <v>338927.9918218705</v>
-      </c>
-      <c r="I2" t="n">
-        <v>338927.9918218705</v>
-      </c>
-      <c r="J2" t="n">
-        <v>338927.9918218704</v>
-      </c>
-      <c r="K2" t="n">
-        <v>338927.9918218706</v>
-      </c>
-      <c r="L2" t="n">
-        <v>338927.9918218705</v>
-      </c>
-      <c r="M2" t="n">
-        <v>338927.9918218706</v>
       </c>
       <c r="N2" t="n">
         <v>338927.9918218706</v>
@@ -26355,7 +26355,7 @@
         <v>338927.9918218705</v>
       </c>
       <c r="P2" t="n">
-        <v>338927.9918218706</v>
+        <v>338927.9918218705</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.245281093</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
+        <v>279125.0601321633</v>
+      </c>
+      <c r="D4" t="n">
         <v>279125.0601321634</v>
-      </c>
-      <c r="D4" t="n">
-        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
         <v>463.7092767442726</v>
@@ -26459,7 +26459,7 @@
         <v>463.7092767442726</v>
       </c>
       <c r="P4" t="n">
-        <v>463.7092767442725</v>
+        <v>463.7092767442726</v>
       </c>
     </row>
     <row r="5">
@@ -26493,16 +26493,16 @@
         <v>44136.03802033842</v>
       </c>
       <c r="J5" t="n">
+        <v>44136.03802033843</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44136.03802033843</v>
+      </c>
+      <c r="L5" t="n">
+        <v>44136.03802033843</v>
+      </c>
+      <c r="M5" t="n">
         <v>44136.03802033842</v>
-      </c>
-      <c r="K5" t="n">
-        <v>44136.03802033842</v>
-      </c>
-      <c r="L5" t="n">
-        <v>44136.03802033842</v>
-      </c>
-      <c r="M5" t="n">
-        <v>44136.03802033843</v>
       </c>
       <c r="N5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104975.3457377043</v>
+        <v>104975.3457377044</v>
       </c>
       <c r="C6" t="n">
+        <v>185744.777269252</v>
+      </c>
+      <c r="D6" t="n">
         <v>185744.7772692519</v>
       </c>
-      <c r="D6" t="n">
-        <v>185744.7772692521</v>
-      </c>
       <c r="E6" t="n">
-        <v>-82075.97918172469</v>
+        <v>-75803.94706536559</v>
       </c>
       <c r="F6" t="n">
-        <v>287359.3199510555</v>
+        <v>293631.3520674146</v>
       </c>
       <c r="G6" t="n">
-        <v>287359.3199510555</v>
+        <v>293631.3520674147</v>
       </c>
       <c r="H6" t="n">
-        <v>287359.3199510556</v>
+        <v>293631.3520674147</v>
       </c>
       <c r="I6" t="n">
-        <v>287359.3199510556</v>
+        <v>293631.3520674147</v>
       </c>
       <c r="J6" t="n">
-        <v>224299.3773519493</v>
+        <v>230571.4094683083</v>
       </c>
       <c r="K6" t="n">
-        <v>287359.3199510556</v>
+        <v>293631.3520674148</v>
       </c>
       <c r="L6" t="n">
-        <v>287359.3199510556</v>
+        <v>293631.3520674147</v>
       </c>
       <c r="M6" t="n">
-        <v>195345.0746699625</v>
+        <v>201617.1067863215</v>
       </c>
       <c r="N6" t="n">
-        <v>287359.3199510557</v>
+        <v>293631.3520674147</v>
       </c>
       <c r="O6" t="n">
-        <v>287359.3199510556</v>
+        <v>293631.3520674146</v>
       </c>
       <c r="P6" t="n">
-        <v>287359.3199510556</v>
+        <v>293631.3520674146</v>
       </c>
     </row>
   </sheetData>
@@ -26813,16 +26813,16 @@
         <v>610.2469066570409</v>
       </c>
       <c r="J4" t="n">
+        <v>610.246906657041</v>
+      </c>
+      <c r="K4" t="n">
+        <v>610.246906657041</v>
+      </c>
+      <c r="L4" t="n">
+        <v>610.246906657041</v>
+      </c>
+      <c r="M4" t="n">
         <v>610.2469066570409</v>
-      </c>
-      <c r="K4" t="n">
-        <v>610.2469066570409</v>
-      </c>
-      <c r="L4" t="n">
-        <v>610.2469066570409</v>
-      </c>
-      <c r="M4" t="n">
-        <v>610.246906657041</v>
       </c>
       <c r="N4" t="n">
         <v>610.2469066570409</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793815</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>165.1120586621556</v>
+        <v>299.6784390881703</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54.73595870413449</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>179.1139601010482</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.05078607424915</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>138.0478248410351</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.77770916128173</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>156.9750519081707</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>312.5633397690553</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27982,25 +27982,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>108.3339765131057</v>
+        <v>155.4123362147774</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31843,10 +31843,10 @@
         <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
-        <v>112.054233062727</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>150.670744704085</v>
+        <v>72.68795260866824</v>
       </c>
       <c r="M12" t="n">
         <v>175.8256523897584</v>
@@ -31858,10 +31858,10 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P12" t="n">
-        <v>101.1477569856567</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
         <v>43.0844371685896</v>
@@ -32086,7 +32086,7 @@
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897584</v>
+        <v>166.2678614545727</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.02157183357846</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
         <v>43.0844371685896</v>
@@ -32314,13 +32314,13 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>137.5023856571341</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
         <v>175.8256523897584</v>
@@ -32329,7 +32329,7 @@
         <v>180.479234222958</v>
       </c>
       <c r="O18" t="n">
-        <v>165.1032398336026</v>
+        <v>151.9348807866515</v>
       </c>
       <c r="P18" t="n">
         <v>132.5099057252086</v>
@@ -32566,10 +32566,10 @@
         <v>180.479234222958</v>
       </c>
       <c r="O21" t="n">
-        <v>128.4600104926892</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P21" t="n">
-        <v>132.5099057252086</v>
+        <v>95.86667638429515</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32788,13 +32788,13 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>72.68795260866824</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
         <v>175.8256523897584</v>
@@ -32809,7 +32809,7 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876457</v>
+        <v>75.41100372181322</v>
       </c>
       <c r="R24" t="n">
         <v>43.0844371685896</v>
@@ -33025,16 +33025,16 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>97.84286029434165</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897584</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,7 +33046,7 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.41100372181322</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R27" t="n">
         <v>43.0844371685896</v>
@@ -33262,13 +33262,13 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>10.59657067334808</v>
       </c>
       <c r="L30" t="n">
-        <v>137.5023856571341</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
         <v>175.8256523897584</v>
@@ -33283,7 +33283,7 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876457</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>43.0844371685896</v>
@@ -33499,13 +33499,13 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L33" t="n">
-        <v>137.5023856571341</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
         <v>175.8256523897584</v>
@@ -33514,7 +33514,7 @@
         <v>180.479234222958</v>
       </c>
       <c r="O33" t="n">
-        <v>165.1032398336026</v>
+        <v>39.88064772392477</v>
       </c>
       <c r="P33" t="n">
         <v>132.5099057252086</v>
@@ -33736,10 +33736,10 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K36" t="n">
-        <v>112.054233062727</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
@@ -33748,7 +33748,7 @@
         <v>175.8256523897584</v>
       </c>
       <c r="N36" t="n">
-        <v>55.25664211328007</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O36" t="n">
         <v>165.1032398336026</v>
@@ -33973,7 +33973,7 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K39" t="n">
         <v>112.054233062727</v>
@@ -33991,7 +33991,7 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P39" t="n">
-        <v>95.86667638429515</v>
+        <v>101.1477569856567</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34213,13 +34213,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>112.054233062727</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>150.670744704085</v>
+        <v>137.5023856571341</v>
       </c>
       <c r="M42" t="n">
-        <v>50.60306028008051</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34447,7 +34447,7 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J45" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>112.054233062727</v>
@@ -34459,16 +34459,16 @@
         <v>175.8256523897584</v>
       </c>
       <c r="N45" t="n">
-        <v>180.479234222958</v>
+        <v>55.25664211328007</v>
       </c>
       <c r="O45" t="n">
         <v>165.1032398336026</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q45" t="n">
-        <v>31.05224333582888</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R45" t="n">
         <v>43.0844371685896</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>99.8112771299739</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35491,10 +35491,10 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>382.95671022767</v>
+        <v>304.9739181322532</v>
       </c>
       <c r="M12" t="n">
         <v>499.39668221774</v>
@@ -35506,10 +35506,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.39668221774</v>
+        <v>489.8388912825543</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>149.117085483406</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>369.7883511807191</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
         <v>499.39668221774</v>
@@ -35977,7 +35977,7 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
-        <v>416.3693146658877</v>
+        <v>403.2009556189366</v>
       </c>
       <c r="P18" t="n">
         <v>316.9982669508155</v>
@@ -36214,10 +36214,10 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
-        <v>379.7260853249742</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>316.9982669508155</v>
+        <v>280.3550376099021</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>304.9739181322532</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
         <v>499.39668221774</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>145.5065173716408</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>224.4666583325613</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.39668221774</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>528.4798964831782</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>145.5065173716408</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>137.2203687115677</v>
       </c>
       <c r="L30" t="n">
-        <v>369.7883511807191</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
         <v>499.39668221774</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L33" t="n">
-        <v>369.7883511807191</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
         <v>499.39668221774</v>
@@ -37162,7 +37162,7 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
-        <v>416.3693146658877</v>
+        <v>291.1467225562099</v>
       </c>
       <c r="P33" t="n">
         <v>316.9982669508155</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009466</v>
+        <v>48.64100594280286</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
@@ -37396,7 +37396,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009466</v>
@@ -37639,10 +37639,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P39" t="n">
-        <v>280.3550376099021</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>382.95671022767</v>
+        <v>369.7883511807191</v>
       </c>
       <c r="M42" t="n">
-        <v>374.1740901080621</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780289</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,16 +38107,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>101.1477569856565</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
